--- a/application/controllers/Items.xlsx
+++ b/application/controllers/Items.xlsx
@@ -71,7 +71,7 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="333375" cy="333375"/>
+    <xdr:ext cx="1152525" cy="333375"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Sample image" descr="Sample image"/>
